--- a/biology/Zoologie/Hemigymnus_fasciatus/Hemigymnus_fasciatus.xlsx
+++ b/biology/Zoologie/Hemigymnus_fasciatus/Hemigymnus_fasciatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Hemigymnus fasciatus, communément nommé labre à bandes noires ou tamarin à bandes noires[2], est un poisson osseux de taille moyenne appartenant à la famille des Labridae natif du Bassin Indo-Pacifique.
+Hemigymnus fasciatus, communément nommé labre à bandes noires ou tamarin à bandes noires, est un poisson osseux de taille moyenne appartenant à la famille des Labridae natif du Bassin Indo-Pacifique.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le labre à bandes noires est un poisson de taille moyenne qui peut atteindre une longueur maximale comprise entre 30 cm[3],[4] et 50 cm[2],[5] pour les mâles.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le labre à bandes noires est un poisson de taille moyenne qui peut atteindre une longueur maximale comprise entre 30 cm, et 50 cm, pour les mâles.
 Le corps est haut, relativement aplati, sa tête est large et sa bouche aux lèvres charnues est terminale. Sa livrée varie en fonction des phases de maturité.
 Durant la phase juvénile, le labre à bandes noires a une couleur de fond jaune verdâtre avec six lignes verticales jaunâtres et entre ces dernières de fines lignes verticales noires pas forcément visibles.
 La femelle en phase initiale a le corps vert sombre à noir avec quatre bandes blanches verticales, la tête est verte et blanche avec des motifs roses surlignés de bleu turquoise. La nageoire caudale est orangée.
@@ -547,10 +561,12 @@
           <t>Distribution &amp; habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le labre à bandes noires est présent dans les eaux tropicales et subtropicalesdu Bassin Indo-Pacifique soit des côtes orientales de l'Afrique, Mer Rouge incluse, jusqu'en Polynésie et de la Nouvelle-Calédonie au sud du Japon[6],[2],[7].
-Le labre à bandes noires apprécie les zones coralliennes mixtes (éboulis/sabe/coraux) où il peut facilement puiser sa nourriture et trouver un abri et ce de la surface à 25 mètres de profondeur [8]. Les juvéniles sont plus discrets et vivent à l'abri des coraux voire aussi entre les épines d'oursin.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le labre à bandes noires est présent dans les eaux tropicales et subtropicalesdu Bassin Indo-Pacifique soit des côtes orientales de l'Afrique, Mer Rouge incluse, jusqu'en Polynésie et de la Nouvelle-Calédonie au sud du Japon.
+Le labre à bandes noires apprécie les zones coralliennes mixtes (éboulis/sabe/coraux) où il peut facilement puiser sa nourriture et trouver un abri et ce de la surface à 25 mètres de profondeur . Les juvéniles sont plus discrets et vivent à l'abri des coraux voire aussi entre les épines d'oursin.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le labre à bandes noires est un prédateur solitaire ou en petits groupes épars qui se nourrit essentiellement de petits invertébrés comme des crustacés, des mollusques, des vers, des échinodermes qu'il capture sur le substrat ou dans le sable [9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le labre à bandes noires est un prédateur solitaire ou en petits groupes épars qui se nourrit essentiellement de petits invertébrés comme des crustacés, des mollusques, des vers, des échinodermes qu'il capture sur le substrat ou dans le sable .
 Comme la majorité des labres, le labre à bandes noires est hermaphrodite protogyne, à savoir que les individus commencent leur existence en tant que femelle et possèdent la capacité de devenir mâle plus tard.
 </t>
         </is>
@@ -611,9 +629,11 @@
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce ne fait face à aucune menace importante en dehors de la collecte pour le marché de l’aquariophilie, elle est toutefois classée en « préoccupation mineure »(LC) par l'UICN[6] .
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce ne fait face à aucune menace importante en dehors de la collecte pour le marché de l’aquariophilie, elle est toutefois classée en « préoccupation mineure »(LC) par l'UICN .
 </t>
         </is>
       </c>
